--- a/DataProcessor/TableGeneratorSampleInput.xlsx
+++ b/DataProcessor/TableGeneratorSampleInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Projects\VedAstro\DataProcessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E11863-7E8A-42E3-ADF5-5F8EDD81E25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC00C72-789F-404E-BB56-32ADE807CE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableGeneratorSampleInput" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -62,12 +62,33 @@
   </si>
   <si>
     <t>06:55 21/01/1999 +00:00</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Great Pyramid</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Finland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,67 +922,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
